--- a/src/apodeixi/knowledge_base/tests_integration/results_data/basic_posting_flows.big_rocks.burnout/brb_opus.T11_form                big-rocks.journeys.a6i.xlsx
+++ b/src/apodeixi/knowledge_base/tests_integration/results_data/basic_posting_flows.big_rocks.burnout/brb_opus.T11_form                big-rocks.journeys.a6i.xlsx
@@ -116,7 +116,7 @@
     <t>Marathon</t>
   </si>
   <si>
-    <t>simple; burnout</t>
+    <t>burnout</t>
   </si>
   <si>
     <t>Default</t>
